--- a/data/trans_orig/POLIPATOLOGIA_5-Clase-trans_orig.xlsx
+++ b/data/trans_orig/POLIPATOLOGIA_5-Clase-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>12853</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>6867</v>
+        <v>7288</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>22063</v>
+        <v>23882</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02712910048893214</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01449492170208988</v>
+        <v>0.01538201738974034</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.04656841509031431</v>
+        <v>0.0504077368966651</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>14</v>
@@ -765,19 +765,19 @@
         <v>14538</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>7921</v>
+        <v>8648</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>23185</v>
+        <v>23936</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.04740326945988405</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.02582824674212628</v>
+        <v>0.02819879168774284</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.07559979970838002</v>
+        <v>0.07804892112941289</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>26</v>
@@ -786,19 +786,19 @@
         <v>27391</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>18017</v>
+        <v>19013</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>38650</v>
+        <v>40773</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.03509583196893745</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.02308478186123787</v>
+        <v>0.02436144465934028</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.04952242344128619</v>
+        <v>0.0522430934952033</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>460923</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>451713</v>
+        <v>449894</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>466909</v>
+        <v>466488</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9728708995110679</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9534315849096855</v>
+        <v>0.9495922631033349</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.98550507829791</v>
+        <v>0.9846179826102597</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>284</v>
@@ -836,19 +836,19 @@
         <v>292142</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>283495</v>
+        <v>282744</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>298759</v>
+        <v>298032</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.952596730540116</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9244002002916204</v>
+        <v>0.9219510788705871</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9741717532578738</v>
+        <v>0.9718012083122571</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>727</v>
@@ -857,19 +857,19 @@
         <v>753066</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>741807</v>
+        <v>739684</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>762440</v>
+        <v>761444</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9649041680310626</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9504775765587138</v>
+        <v>0.9477569065047967</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9769152181387621</v>
+        <v>0.9756385553406598</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>8295</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>3848</v>
+        <v>3713</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>15111</v>
+        <v>15704</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.02260590464454434</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01048678240321334</v>
+        <v>0.01011993326309598</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.0411807939437475</v>
+        <v>0.04279764592671131</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>13</v>
@@ -982,19 +982,19 @@
         <v>14278</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>8025</v>
+        <v>7548</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>24791</v>
+        <v>23910</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.03839645517734955</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.02158071836341444</v>
+        <v>0.02029664856513941</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.06666627124210898</v>
+        <v>0.06429716153100214</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>22</v>
@@ -1003,19 +1003,19 @@
         <v>22573</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>13655</v>
+        <v>14346</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>33419</v>
+        <v>33131</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.03055387277612968</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01848284789322308</v>
+        <v>0.01941825218374683</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.04523460569900518</v>
+        <v>0.04484410931940033</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>358639</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>351823</v>
+        <v>351230</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>363086</v>
+        <v>363221</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9773940953554556</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9588192060562526</v>
+        <v>0.9572023540732887</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.989513217596787</v>
+        <v>0.989880066736904</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>350</v>
@@ -1053,19 +1053,19 @@
         <v>357587</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>347074</v>
+        <v>347955</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>363840</v>
+        <v>364317</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9616035448226504</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9333337287578912</v>
+        <v>0.9357028384689985</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9784192816365856</v>
+        <v>0.9797033514348606</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>691</v>
@@ -1074,19 +1074,19 @@
         <v>716226</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>705380</v>
+        <v>705668</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>725144</v>
+        <v>724453</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9694461272238704</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9547653943009946</v>
+        <v>0.9551558906805995</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9815171521067766</v>
+        <v>0.9805817478162528</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>17863</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>10850</v>
+        <v>10560</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>27945</v>
+        <v>27388</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.03293435954407448</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02000389406449403</v>
+        <v>0.01946987579993664</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.05152181725166377</v>
+        <v>0.05049590011483737</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>13</v>
@@ -1199,19 +1199,19 @@
         <v>14088</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>8407</v>
+        <v>7857</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>22993</v>
+        <v>22676</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.08396774121460779</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.05010638953448318</v>
+        <v>0.04683120414705692</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1370384144921997</v>
+        <v>0.1351528313815345</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>31</v>
@@ -1220,19 +1220,19 @@
         <v>31952</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>22315</v>
+        <v>22647</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>44027</v>
+        <v>45160</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.04499128401035254</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.03142187215684974</v>
+        <v>0.0318893863320151</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.06199503934852276</v>
+        <v>0.06358974238399435</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>524526</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>514444</v>
+        <v>515001</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>531539</v>
+        <v>531829</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9670656404559255</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9484781827483362</v>
+        <v>0.9495040998851627</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9799961059355059</v>
+        <v>0.9805301242000634</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>151</v>
@@ -1270,19 +1270,19 @@
         <v>153694</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>144789</v>
+        <v>145106</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>159375</v>
+        <v>159925</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9160322587853922</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8629615855078004</v>
+        <v>0.8648471686184656</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.949893610465517</v>
+        <v>0.9531687958529431</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>665</v>
@@ -1291,19 +1291,19 @@
         <v>678219</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>666144</v>
+        <v>665011</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>687856</v>
+        <v>687524</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9550087159896474</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9380049606514772</v>
+        <v>0.9364102576160059</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9685781278431502</v>
+        <v>0.968110613667985</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>55322</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>41983</v>
+        <v>41772</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>71335</v>
+        <v>69746</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.04467468064071294</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.03390260172970443</v>
+        <v>0.03373229885105567</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.05760568145563223</v>
+        <v>0.0563223713616831</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>43</v>
@@ -1416,19 +1416,19 @@
         <v>42688</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>31082</v>
+        <v>31142</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>55153</v>
+        <v>55793</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.0597635500004228</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.04351416570922177</v>
+        <v>0.04359883866581839</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.077214821475936</v>
+        <v>0.07811083580988318</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>101</v>
@@ -1437,19 +1437,19 @@
         <v>98010</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>80934</v>
+        <v>82080</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>117641</v>
+        <v>119512</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.05019432067288158</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.04144887682904243</v>
+        <v>0.04203589926804856</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.0602479319871951</v>
+        <v>0.06120614791892195</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>1183012</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1166999</v>
+        <v>1168588</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1196351</v>
+        <v>1196562</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9553253193592871</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9423943185443677</v>
+        <v>0.9436776286383176</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9660973982702955</v>
+        <v>0.9662677011489446</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>651</v>
@@ -1487,19 +1487,19 @@
         <v>671597</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>659132</v>
+        <v>658492</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>683203</v>
+        <v>683143</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9402364499995772</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9227851785240639</v>
+        <v>0.9218891641901165</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.956485834290778</v>
+        <v>0.9564011613341815</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1817</v>
@@ -1508,19 +1508,19 @@
         <v>1854610</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1834979</v>
+        <v>1833108</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1871686</v>
+        <v>1870540</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9498056793271185</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.939752068012805</v>
+        <v>0.938793852081078</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9585511231709583</v>
+        <v>0.9579641007319515</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>16590</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>10114</v>
+        <v>10283</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>25079</v>
+        <v>25668</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.04732405469251604</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.02885022975607215</v>
+        <v>0.02933277347744743</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.07154170458944206</v>
+        <v>0.07322145250923459</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>37</v>
@@ -1633,19 +1633,19 @@
         <v>38412</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>27422</v>
+        <v>28148</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>51099</v>
+        <v>53827</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.06753791155193002</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.04821426994277259</v>
+        <v>0.04949077247451044</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.08984391803285631</v>
+        <v>0.09464004865244353</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>55</v>
@@ -1654,19 +1654,19 @@
         <v>55002</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>40595</v>
+        <v>42378</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>72545</v>
+        <v>71336</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.05982985190426413</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.04415796075914043</v>
+        <v>0.04609810469709081</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.07891282760595203</v>
+        <v>0.07759747033038454</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>333965</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>325476</v>
+        <v>324887</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>340441</v>
+        <v>340272</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.952675945307484</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9284582954105579</v>
+        <v>0.9267785474907656</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9711497702439279</v>
+        <v>0.9706672265225526</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>502</v>
@@ -1704,19 +1704,19 @@
         <v>530340</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>517653</v>
+        <v>514925</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>541330</v>
+        <v>540604</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.93246208844807</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9101560819671436</v>
+        <v>0.9053599513475564</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9517857300572274</v>
+        <v>0.9505092275254895</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>824</v>
@@ -1725,19 +1725,19 @@
         <v>864305</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>846762</v>
+        <v>847971</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>878712</v>
+        <v>876929</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9401701480957358</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9210871723940476</v>
+        <v>0.9224025296696154</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9558420392408595</v>
+        <v>0.9539018953029093</v>
       </c>
     </row>
     <row r="18">
@@ -1832,7 +1832,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>4574</v>
+        <v>4614</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.003066313466181129</v>
@@ -1841,7 +1841,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.0153375588930717</v>
+        <v>0.01547137403781883</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>98</v>
@@ -1850,19 +1850,19 @@
         <v>102544</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>84205</v>
+        <v>85477</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>122472</v>
+        <v>127249</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.08211675349443723</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.06743054310031465</v>
+        <v>0.06844977916381639</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.09807507331695156</v>
+        <v>0.1019006160341736</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>99</v>
@@ -1871,19 +1871,19 @@
         <v>103458</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>86256</v>
+        <v>83518</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>126110</v>
+        <v>123917</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.06687855802638219</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.05575810781907693</v>
+        <v>0.05398819140635545</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.08152099237879119</v>
+        <v>0.0801035395320684</v>
       </c>
     </row>
     <row r="20">
@@ -1900,7 +1900,7 @@
         <v>297287</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>293627</v>
+        <v>293587</v>
       </c>
       <c r="F20" s="5" t="n">
         <v>298201</v>
@@ -1909,7 +1909,7 @@
         <v>0.9969336865338189</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9846624411069284</v>
+        <v>0.984528625962181</v>
       </c>
       <c r="I20" s="6" t="n">
         <v>1</v>
@@ -1921,19 +1921,19 @@
         <v>1146216</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>1126288</v>
+        <v>1121511</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>1164555</v>
+        <v>1163283</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9178832465055627</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9019249266830488</v>
+        <v>0.8980993839658263</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9325694568996856</v>
+        <v>0.9315502208361833</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1445</v>
@@ -1942,19 +1942,19 @@
         <v>1443502</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1420850</v>
+        <v>1423043</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1460704</v>
+        <v>1463442</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9331214419736178</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9184790076212088</v>
+        <v>0.9198964604679316</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9442418921809231</v>
+        <v>0.9460118085936445</v>
       </c>
     </row>
     <row r="21">
@@ -2046,19 +2046,19 @@
         <v>111838</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>93717</v>
+        <v>92018</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>133695</v>
+        <v>132881</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.0341990877272763</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.02865793830873106</v>
+        <v>0.028138564785775</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.04088285005243465</v>
+        <v>0.04063398384219065</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>218</v>
@@ -2067,19 +2067,19 @@
         <v>226549</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>198038</v>
+        <v>200822</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>257386</v>
+        <v>261647</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.0670635078777392</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.0586236212439648</v>
+        <v>0.05944767727866831</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.07619194607635081</v>
+        <v>0.07745333516988916</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>334</v>
@@ -2088,19 +2088,19 @@
         <v>338386</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>303663</v>
+        <v>306217</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>375348</v>
+        <v>374931</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.0508980713809601</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.04567519749200364</v>
+        <v>0.04605931685442077</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.05645760729941059</v>
+        <v>0.05639492904948631</v>
       </c>
     </row>
     <row r="23">
@@ -2117,19 +2117,19 @@
         <v>3158352</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3136495</v>
+        <v>3137309</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>3176473</v>
+        <v>3178172</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9658009122727237</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9591171499475653</v>
+        <v>0.9593660161578094</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9713420616912689</v>
+        <v>0.9718614352142257</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>3078</v>
@@ -2138,19 +2138,19 @@
         <v>3151575</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>3120738</v>
+        <v>3116477</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>3180086</v>
+        <v>3177302</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9329364921222608</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9238080539236492</v>
+        <v>0.9225466648301107</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9413763787560352</v>
+        <v>0.9405523227213313</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>6169</v>
@@ -2159,19 +2159,19 @@
         <v>6309928</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>6272966</v>
+        <v>6273383</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>6344651</v>
+        <v>6342097</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9491019286190399</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9435423927005896</v>
+        <v>0.943605070950514</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9543248025079965</v>
+        <v>0.9539406831455794</v>
       </c>
     </row>
     <row r="24">
@@ -2508,7 +2508,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>4929</v>
+        <v>4891</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.002269194788739653</v>
@@ -2517,7 +2517,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.01127468027879629</v>
+        <v>0.01118745767610849</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>12</v>
@@ -2526,19 +2526,19 @@
         <v>13727</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>6978</v>
+        <v>7819</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>22687</v>
+        <v>22887</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.04365440875690317</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.02219032682082035</v>
+        <v>0.0248661443307792</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.07214739722167179</v>
+        <v>0.07278243772017626</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>13</v>
@@ -2547,19 +2547,19 @@
         <v>14719</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>8366</v>
+        <v>8032</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>23486</v>
+        <v>25169</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01958243407985437</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01112945314031448</v>
+        <v>0.0106857067395132</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.03124564463695969</v>
+        <v>0.0334846750947687</v>
       </c>
     </row>
     <row r="5">
@@ -2576,7 +2576,7 @@
         <v>436219</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>432282</v>
+        <v>432320</v>
       </c>
       <c r="F5" s="5" t="n">
         <v>437211</v>
@@ -2585,7 +2585,7 @@
         <v>0.9977308052112603</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9887253197212036</v>
+        <v>0.9888125423238916</v>
       </c>
       <c r="I5" s="6" t="n">
         <v>1</v>
@@ -2597,19 +2597,19 @@
         <v>300727</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>291767</v>
+        <v>291567</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>307476</v>
+        <v>306635</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9563455912430968</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.927852602778328</v>
+        <v>0.9272175622798237</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9778096731791797</v>
+        <v>0.9751338556692207</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>674</v>
@@ -2618,19 +2618,19 @@
         <v>736946</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>728179</v>
+        <v>726496</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>743299</v>
+        <v>743633</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9804175659201456</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9687543553630404</v>
+        <v>0.9665153249052313</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9888705468596857</v>
+        <v>0.9893142932604868</v>
       </c>
     </row>
     <row r="6">
@@ -2722,19 +2722,19 @@
         <v>8253</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>4038</v>
+        <v>4004</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>16259</v>
+        <v>15943</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01970757739642615</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.009641778782950298</v>
+        <v>0.009560769736061719</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.03882201439663441</v>
+        <v>0.03806925169048762</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>15</v>
@@ -2743,19 +2743,19 @@
         <v>16618</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>9778</v>
+        <v>10097</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>26738</v>
+        <v>27573</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.0491648412131142</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.02892740142210209</v>
+        <v>0.02987181846456076</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.07910444476415233</v>
+        <v>0.08157335442997402</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>23</v>
@@ -2764,19 +2764,19 @@
         <v>24872</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>15742</v>
+        <v>15845</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>35366</v>
+        <v>36898</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.03286399403303913</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.02079993740394382</v>
+        <v>0.02093685330850276</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.0467303181000417</v>
+        <v>0.04875497738135775</v>
       </c>
     </row>
     <row r="8">
@@ -2793,19 +2793,19 @@
         <v>410544</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>402538</v>
+        <v>402854</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>414759</v>
+        <v>414793</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9802924226035739</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9611779856033652</v>
+        <v>0.9619307483095124</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9903582212170496</v>
+        <v>0.9904392302639383</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>290</v>
@@ -2814,19 +2814,19 @@
         <v>321393</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>311273</v>
+        <v>310438</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>328233</v>
+        <v>327914</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9508351587868858</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9208955552358475</v>
+        <v>0.9184266455700264</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9710725985778975</v>
+        <v>0.9701281815354393</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>657</v>
@@ -2835,19 +2835,19 @@
         <v>731936</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>721442</v>
+        <v>719910</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>741066</v>
+        <v>740963</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9671360059669609</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.953269681899958</v>
+        <v>0.9512450226186423</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9792000625960561</v>
+        <v>0.9790631466914974</v>
       </c>
     </row>
     <row r="9">
@@ -2939,19 +2939,19 @@
         <v>30255</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>19599</v>
+        <v>19440</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>43327</v>
+        <v>42386</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.04806801681539187</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.03113872464490092</v>
+        <v>0.03088641881206246</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.06883710835694584</v>
+        <v>0.06734236086272195</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>16</v>
@@ -2960,19 +2960,19 @@
         <v>16503</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>10059</v>
+        <v>9940</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>25439</v>
+        <v>25829</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.06344246758310017</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.03867081069850361</v>
+        <v>0.03821121060378991</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.09779499938446957</v>
+        <v>0.09929217249804684</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>42</v>
@@ -2981,19 +2981,19 @@
         <v>46758</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>34296</v>
+        <v>34057</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>62321</v>
+        <v>62472</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.05256396754071847</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.03855437680225152</v>
+        <v>0.03828537929234144</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.07005903957115263</v>
+        <v>0.07022967348296683</v>
       </c>
     </row>
     <row r="11">
@@ -3010,19 +3010,19 @@
         <v>599160</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>586088</v>
+        <v>587029</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>609816</v>
+        <v>609975</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9519319831846081</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9311628916430532</v>
+        <v>0.9326576391372782</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9688612753550989</v>
+        <v>0.9691135811879377</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>228</v>
@@ -3031,19 +3031,19 @@
         <v>243626</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>234690</v>
+        <v>234300</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>250070</v>
+        <v>250189</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9365575324168999</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9022050006155303</v>
+        <v>0.9007078275019533</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9613291893014962</v>
+        <v>0.9617887893962103</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>793</v>
@@ -3052,19 +3052,19 @@
         <v>842786</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>827223</v>
+        <v>827072</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>855248</v>
+        <v>855487</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9474360324592815</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9299409604288472</v>
+        <v>0.9297703265170333</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9614456231977485</v>
+        <v>0.9617146207076586</v>
       </c>
     </row>
     <row r="12">
@@ -3156,19 +3156,19 @@
         <v>69300</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>54494</v>
+        <v>53280</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>86459</v>
+        <v>87337</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.05979269950356636</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.04701787965856254</v>
+        <v>0.0459701653790331</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.07459769382895645</v>
+        <v>0.07535509743747816</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>46</v>
@@ -3177,19 +3177,19 @@
         <v>50928</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>38075</v>
+        <v>37734</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>65584</v>
+        <v>67196</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.06642828506870911</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.04966354183702401</v>
+        <v>0.04921865384266347</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.08554557622665301</v>
+        <v>0.08764845737522689</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>109</v>
@@ -3198,19 +3198,19 @@
         <v>120228</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>98025</v>
+        <v>96552</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>143690</v>
+        <v>142345</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.06243449679855416</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.05090420040389534</v>
+        <v>0.05013952096384643</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.07461805314832129</v>
+        <v>0.07391993402106528</v>
       </c>
     </row>
     <row r="14">
@@ -3227,19 +3227,19 @@
         <v>1089709</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1072550</v>
+        <v>1071672</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1104515</v>
+        <v>1105729</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9402073004964336</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9254023061710437</v>
+        <v>0.9246449025625219</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9529821203414376</v>
+        <v>0.9540298346209669</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>665</v>
@@ -3248,19 +3248,19 @@
         <v>715729</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>701073</v>
+        <v>699461</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>728582</v>
+        <v>728923</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9335717149312909</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9144544237733471</v>
+        <v>0.9123515426247731</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.950336458162976</v>
+        <v>0.9507813461573364</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1685</v>
@@ -3269,19 +3269,19 @@
         <v>1805439</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1781977</v>
+        <v>1783322</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1827642</v>
+        <v>1829115</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9375655032014458</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9253819468516785</v>
+        <v>0.9260800659789347</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9490957995961046</v>
+        <v>0.9498604790361536</v>
       </c>
     </row>
     <row r="15">
@@ -3373,19 +3373,19 @@
         <v>19079</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>10857</v>
+        <v>11487</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>28789</v>
+        <v>29047</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.03736531581658988</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.02126248944535643</v>
+        <v>0.02249814816479643</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.05638384283197943</v>
+        <v>0.05688753605245843</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>96</v>
@@ -3394,19 +3394,19 @@
         <v>103391</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>85651</v>
+        <v>86592</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>123760</v>
+        <v>124650</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1357685461832401</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1124736618473385</v>
+        <v>0.1137089165405894</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1625160950043721</v>
+        <v>0.1636857313601176</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>114</v>
@@ -3415,19 +3415,19 @@
         <v>122469</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>101573</v>
+        <v>102725</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>145010</v>
+        <v>143905</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.09627195532754985</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.07984568126885395</v>
+        <v>0.0807512267364326</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1139913233619126</v>
+        <v>0.1131227106726786</v>
       </c>
     </row>
     <row r="17">
@@ -3444,19 +3444,19 @@
         <v>491517</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>481807</v>
+        <v>481549</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>499739</v>
+        <v>499109</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9626346841834101</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9436161571680206</v>
+        <v>0.9431124639475418</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9787375105546436</v>
+        <v>0.9775018518352037</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>607</v>
@@ -3465,19 +3465,19 @@
         <v>658131</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>637762</v>
+        <v>636872</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>675871</v>
+        <v>674930</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8642314538167599</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8374839049956276</v>
+        <v>0.836314268639882</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8875263381526615</v>
+        <v>0.8862910834594104</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1076</v>
@@ -3486,19 +3486,19 @@
         <v>1149649</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1127108</v>
+        <v>1128213</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1170545</v>
+        <v>1169393</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9037280446724502</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8860086766380876</v>
+        <v>0.8868772893273215</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9201543187311461</v>
+        <v>0.9192487732635676</v>
       </c>
     </row>
     <row r="18">
@@ -3593,7 +3593,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>6046</v>
+        <v>6997</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.007390332524574539</v>
@@ -3602,7 +3602,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.02265271069399139</v>
+        <v>0.0262191624340714</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>138</v>
@@ -3611,19 +3611,19 @@
         <v>149839</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>128731</v>
+        <v>127068</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>174504</v>
+        <v>175554</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1350691156319224</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1160418942491927</v>
+        <v>0.1145428463185319</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1573025670121083</v>
+        <v>0.1582488882939111</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>140</v>
@@ -3632,19 +3632,19 @@
         <v>151811</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>128663</v>
+        <v>127982</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>176453</v>
+        <v>176302</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1103093873976978</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.09348944251449111</v>
+        <v>0.09299444594560924</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1282142380420551</v>
+        <v>0.1281046494530041</v>
       </c>
     </row>
     <row r="20">
@@ -3661,7 +3661,7 @@
         <v>264910</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>260836</v>
+        <v>259885</v>
       </c>
       <c r="F20" s="5" t="n">
         <v>266882</v>
@@ -3670,7 +3670,7 @@
         <v>0.9926096674754255</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9773472893060084</v>
+        <v>0.9737808375659259</v>
       </c>
       <c r="I20" s="6" t="n">
         <v>1</v>
@@ -3682,19 +3682,19 @@
         <v>959512</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>934847</v>
+        <v>933797</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>980620</v>
+        <v>982283</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.8649308843680775</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8426974329878917</v>
+        <v>0.841751111706089</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8839581057508074</v>
+        <v>0.885457153681468</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1169</v>
@@ -3703,19 +3703,19 @@
         <v>1224422</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1199780</v>
+        <v>1199931</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1247570</v>
+        <v>1248251</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.8896906126023022</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.871785761957945</v>
+        <v>0.8718953505469951</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9065105574855089</v>
+        <v>0.90700555405439</v>
       </c>
     </row>
     <row r="21">
@@ -3807,19 +3807,19 @@
         <v>129852</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>109149</v>
+        <v>108858</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>153981</v>
+        <v>154258</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.03794709574743343</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.03189723018795117</v>
+        <v>0.03181191487157819</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.04499847536893872</v>
+        <v>0.04507937291176139</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>323</v>
@@ -3828,19 +3828,19 @@
         <v>351006</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>316804</v>
+        <v>315348</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>389715</v>
+        <v>386989</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.09887154645541685</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.08923748371794286</v>
+        <v>0.0888273230556321</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1097749357882832</v>
+        <v>0.1090072847175016</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>441</v>
@@ -3849,19 +3849,19 @@
         <v>480858</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>432989</v>
+        <v>438312</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>523602</v>
+        <v>526592</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.06896951956620127</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.06210371700781524</v>
+        <v>0.06286719489651223</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.07510036773347212</v>
+        <v>0.0755291373796593</v>
       </c>
     </row>
     <row r="23">
@@ -3878,19 +3878,19 @@
         <v>3292058</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3267929</v>
+        <v>3267652</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>3312761</v>
+        <v>3313052</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9620529042525666</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9550015246310612</v>
+        <v>0.9549206270882385</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9681027698120488</v>
+        <v>0.9681880851284218</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>2967</v>
@@ -3899,19 +3899,19 @@
         <v>3199119</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>3160410</v>
+        <v>3163136</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>3233321</v>
+        <v>3234777</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9011284535445832</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.8902250642117168</v>
+        <v>0.8909927152824985</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9107625162820572</v>
+        <v>0.911172676944368</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>6054</v>
@@ -3920,19 +3920,19 @@
         <v>6491177</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>6448433</v>
+        <v>6445443</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>6539046</v>
+        <v>6533723</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9310304804337988</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9248996322665285</v>
+        <v>0.9244708626203411</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.937896282992185</v>
+        <v>0.9371328051034881</v>
       </c>
     </row>
     <row r="24">
@@ -4266,19 +4266,19 @@
         <v>16455</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>9644</v>
+        <v>10071</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>26606</v>
+        <v>26264</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.03834935858324669</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.02247440121312006</v>
+        <v>0.0234707891763299</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.06200599684049711</v>
+        <v>0.06120913434991349</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>14</v>
@@ -4287,19 +4287,19 @@
         <v>15983</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>8561</v>
+        <v>9208</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>25892</v>
+        <v>25936</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.04605420927234938</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.0246678975838695</v>
+        <v>0.0265325681293534</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.07460500705811698</v>
+        <v>0.07473167895712912</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>29</v>
@@ -4308,19 +4308,19 @@
         <v>32439</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>22262</v>
+        <v>21254</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>45772</v>
+        <v>45463</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.04179459063567541</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.02868221616869469</v>
+        <v>0.02738346337214595</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.05897333933078056</v>
+        <v>0.05857497029978131</v>
       </c>
     </row>
     <row r="5">
@@ -4337,19 +4337,19 @@
         <v>412637</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>402486</v>
+        <v>402828</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>419448</v>
+        <v>419021</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9616506414167533</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9379940031595017</v>
+        <v>0.9387908656500864</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9775255987868796</v>
+        <v>0.9765292108236701</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>318</v>
@@ -4358,19 +4358,19 @@
         <v>331072</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>321163</v>
+        <v>321119</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>338494</v>
+        <v>337847</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9539457907276506</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9253949929418832</v>
+        <v>0.925268321042871</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9753321024161306</v>
+        <v>0.9734674318706467</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>699</v>
@@ -4379,19 +4379,19 @@
         <v>743708</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>730375</v>
+        <v>730684</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>753885</v>
+        <v>754893</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9582054093643246</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9410266606692187</v>
+        <v>0.9414250297002187</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.971317783831305</v>
+        <v>0.9726165366278541</v>
       </c>
     </row>
     <row r="6">
@@ -4483,19 +4483,19 @@
         <v>5397</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>1948</v>
+        <v>1913</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>12118</v>
+        <v>11371</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01430730223205354</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.005162902275369719</v>
+        <v>0.005070540655114226</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.03212493994479661</v>
+        <v>0.03014422009670562</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>13</v>
@@ -4504,19 +4504,19 @@
         <v>15875</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>8806</v>
+        <v>8862</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>26696</v>
+        <v>25947</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.04264477207331133</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.02365496213111139</v>
+        <v>0.02380376936945694</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.07170960833554615</v>
+        <v>0.06969899579665781</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>18</v>
@@ -4525,19 +4525,19 @@
         <v>21273</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>13070</v>
+        <v>12724</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>34190</v>
+        <v>34154</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.02838239070328458</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01743855312614664</v>
+        <v>0.01697651819530836</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.0456164794349524</v>
+        <v>0.04556899681483886</v>
       </c>
     </row>
     <row r="8">
@@ -4554,19 +4554,19 @@
         <v>371830</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>365109</v>
+        <v>365856</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>375279</v>
+        <v>375314</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9856926977679464</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9678750600552035</v>
+        <v>0.9698557799032942</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9948370977246302</v>
+        <v>0.9949294593448857</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>339</v>
@@ -4575,19 +4575,19 @@
         <v>356398</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>345577</v>
+        <v>346326</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>363467</v>
+        <v>363411</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9573552279266887</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9282903916644538</v>
+        <v>0.9303010042033422</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9763450378688886</v>
+        <v>0.9761962306305431</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>688</v>
@@ -4596,19 +4596,19 @@
         <v>728227</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>715310</v>
+        <v>715346</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>736430</v>
+        <v>736776</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9716176092967154</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9543835205650477</v>
+        <v>0.9544310031851612</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9825614468738535</v>
+        <v>0.9830234818046919</v>
       </c>
     </row>
     <row r="9">
@@ -4700,19 +4700,19 @@
         <v>14228</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>8022</v>
+        <v>7712</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>22316</v>
+        <v>23248</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.02726188342053756</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01537070941783126</v>
+        <v>0.01477641340240734</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.04275777213121617</v>
+        <v>0.04454413949210341</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>20</v>
@@ -4721,19 +4721,19 @@
         <v>24224</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>15537</v>
+        <v>15381</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>35976</v>
+        <v>35219</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1458220404147034</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.09352589697647395</v>
+        <v>0.09258799264252224</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2165619357246552</v>
+        <v>0.2120054556672427</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>34</v>
@@ -4742,19 +4742,19 @@
         <v>38453</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>25458</v>
+        <v>26413</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>50567</v>
+        <v>52790</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.05588761168514392</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.03700101100847123</v>
+        <v>0.03838889086408788</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.07349501338771298</v>
+        <v>0.07672597331904371</v>
       </c>
     </row>
     <row r="11">
@@ -4771,19 +4771,19 @@
         <v>507686</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>499598</v>
+        <v>498666</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>513892</v>
+        <v>514202</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9727381165794624</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9572422278687838</v>
+        <v>0.9554558605078965</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9846292905821686</v>
+        <v>0.9852235865975927</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>133</v>
@@ -4792,19 +4792,19 @@
         <v>141899</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>130147</v>
+        <v>130904</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>150586</v>
+        <v>150742</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8541779595852966</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7834380642753449</v>
+        <v>0.7879945443327574</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9064741030235262</v>
+        <v>0.907412007357478</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>621</v>
@@ -4813,19 +4813,19 @@
         <v>649583</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>637469</v>
+        <v>635246</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>662578</v>
+        <v>661623</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9441123883148561</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9265049866122872</v>
+        <v>0.923274026680956</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9629989889915288</v>
+        <v>0.961611109135912</v>
       </c>
     </row>
     <row r="12">
@@ -4917,19 +4917,19 @@
         <v>43469</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>32273</v>
+        <v>32100</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>58616</v>
+        <v>56367</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.03781091179793346</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.02807221067360135</v>
+        <v>0.02792179048183735</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.05098658495189502</v>
+        <v>0.04903005535464914</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>52</v>
@@ -4938,19 +4938,19 @@
         <v>57069</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>43024</v>
+        <v>43437</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>73061</v>
+        <v>75759</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.0691008227304522</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.05209517519808311</v>
+        <v>0.05259520942671976</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.08846490400310711</v>
+        <v>0.09173214313262491</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>96</v>
@@ -4959,19 +4959,19 @@
         <v>100538</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>80790</v>
+        <v>83049</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>120683</v>
+        <v>123694</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.05089185126537808</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.04089564375618056</v>
+        <v>0.04203899190704903</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.06108919327765117</v>
+        <v>0.06261355802351719</v>
       </c>
     </row>
     <row r="14">
@@ -4988,19 +4988,19 @@
         <v>1106169</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1091022</v>
+        <v>1093271</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1117365</v>
+        <v>1117538</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9621890882020665</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9490134150481045</v>
+        <v>0.9509699446453508</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9719277893263985</v>
+        <v>0.9720782095181626</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>746</v>
@@ -5009,19 +5009,19 @@
         <v>768807</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>752815</v>
+        <v>750117</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>782852</v>
+        <v>782439</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9308991772695479</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9115350959968929</v>
+        <v>0.908267856867375</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9479048248019168</v>
+        <v>0.9474047905732802</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1805</v>
@@ -5030,19 +5030,19 @@
         <v>1874976</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1854831</v>
+        <v>1851820</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1894724</v>
+        <v>1892465</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9491081487346219</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9389108067223488</v>
+        <v>0.9373864419764829</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9591043562438195</v>
+        <v>0.957961008092951</v>
       </c>
     </row>
     <row r="15">
@@ -5134,19 +5134,19 @@
         <v>38800</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>29115</v>
+        <v>28692</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>51354</v>
+        <v>52518</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.06250882980058994</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.04690671930429116</v>
+        <v>0.04622517291859889</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.08273539652514252</v>
+        <v>0.08460947639943626</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>88</v>
@@ -5155,19 +5155,19 @@
         <v>99135</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>79270</v>
+        <v>81985</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>120043</v>
+        <v>121834</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1342852807801155</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1073762323102281</v>
+        <v>0.1110545625076302</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.162605603237725</v>
+        <v>0.1650324385342844</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>130</v>
@@ -5176,19 +5176,19 @@
         <v>137935</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>116746</v>
+        <v>115456</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>160501</v>
+        <v>162266</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.101501098224556</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.08590866255294272</v>
+        <v>0.08495998134789258</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1181066801774887</v>
+        <v>0.1194052851130039</v>
       </c>
     </row>
     <row r="17">
@@ -5205,19 +5205,19 @@
         <v>581906</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>569352</v>
+        <v>568188</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>591591</v>
+        <v>592014</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9374911701994101</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9172646034748571</v>
+        <v>0.9153905236005633</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9530932806957089</v>
+        <v>0.953774827081401</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>611</v>
@@ -5226,19 +5226,19 @@
         <v>639109</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>618201</v>
+        <v>616410</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>658974</v>
+        <v>656259</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8657147192198845</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.837394396762275</v>
+        <v>0.8349675614657155</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8926237676897718</v>
+        <v>0.8889454374923698</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1166</v>
@@ -5247,19 +5247,19 @@
         <v>1221015</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1198449</v>
+        <v>1196684</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1242204</v>
+        <v>1243494</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.898498901775444</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8818933198225113</v>
+        <v>0.8805947148869961</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9140913374470573</v>
+        <v>0.9150400186521075</v>
       </c>
     </row>
     <row r="18">
@@ -5354,7 +5354,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>5734</v>
+        <v>5693</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.003951735175798903</v>
@@ -5363,7 +5363,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.01996802898966528</v>
+        <v>0.01982651456871982</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>115</v>
@@ -5372,19 +5372,19 @@
         <v>133884</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>112148</v>
+        <v>114285</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>159500</v>
+        <v>159423</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1237345183184688</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1036463529500771</v>
+        <v>0.1056217594419184</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1474090062502489</v>
+        <v>0.147337748351445</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>116</v>
@@ -5393,19 +5393,19 @@
         <v>135019</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>111222</v>
+        <v>112929</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>158770</v>
+        <v>160613</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.09861342675507838</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.08123323710526853</v>
+        <v>0.08247981900806098</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1159605113670751</v>
+        <v>0.1173070631578211</v>
       </c>
     </row>
     <row r="20">
@@ -5422,7 +5422,7 @@
         <v>286010</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>281411</v>
+        <v>281452</v>
       </c>
       <c r="F20" s="5" t="n">
         <v>287145</v>
@@ -5431,7 +5431,7 @@
         <v>0.9960482648242011</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9800319710103347</v>
+        <v>0.9801734854312804</v>
       </c>
       <c r="I20" s="6" t="n">
         <v>1</v>
@@ -5443,19 +5443,19 @@
         <v>948141</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>922525</v>
+        <v>922602</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>969877</v>
+        <v>967740</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.8762654816815312</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8525909937497513</v>
+        <v>0.852662251648555</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8963536470499232</v>
+        <v>0.8943782405580816</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1148</v>
@@ -5464,19 +5464,19 @@
         <v>1234151</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1210400</v>
+        <v>1208557</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1257948</v>
+        <v>1256241</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9013865732449217</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.884039488632925</v>
+        <v>0.882692936842179</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9187667628947316</v>
+        <v>0.9175201809919392</v>
       </c>
     </row>
     <row r="21">
@@ -5568,19 +5568,19 @@
         <v>119484</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>100791</v>
+        <v>101197</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>142098</v>
+        <v>141238</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.03529056652467171</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.02976934201337936</v>
+        <v>0.02988937659605398</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.04196988059728585</v>
+        <v>0.04171580597799829</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>302</v>
@@ -5589,19 +5589,19 @@
         <v>346171</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>308224</v>
+        <v>307004</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>382547</v>
+        <v>380444</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.09802114031671991</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.08727624905571084</v>
+        <v>0.08693064189985986</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.108321398455105</v>
+        <v>0.107725799092107</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>423</v>
@@ -5610,19 +5610,19 @@
         <v>465655</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>423724</v>
+        <v>422045</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>513848</v>
+        <v>506754</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.06731729046760293</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.06125552340893872</v>
+        <v>0.06101285726267231</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.07428427444103466</v>
+        <v>0.0732586946298336</v>
       </c>
     </row>
     <row r="23">
@@ -5639,19 +5639,19 @@
         <v>3266238</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3243624</v>
+        <v>3244484</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>3284931</v>
+        <v>3284525</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9647094334753283</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9580301194027142</v>
+        <v>0.9582841940220015</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9702306579866208</v>
+        <v>0.9701106234039459</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>3024</v>
@@ -5660,19 +5660,19 @@
         <v>3185425</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>3149049</v>
+        <v>3151152</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>3223372</v>
+        <v>3224592</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9019788596832801</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.8916786015448952</v>
+        <v>0.8922742009078928</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9127237509442894</v>
+        <v>0.9130693581001401</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>6127</v>
@@ -5681,19 +5681,19 @@
         <v>6451663</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>6403470</v>
+        <v>6410564</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>6493594</v>
+        <v>6495273</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9326827095323971</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9257157255589653</v>
+        <v>0.9267413053701664</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9387444765910613</v>
+        <v>0.9389871427373278</v>
       </c>
     </row>
     <row r="24">
@@ -6027,19 +6027,19 @@
         <v>33130</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>23785</v>
+        <v>24191</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>44583</v>
+        <v>44854</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.06016958280105186</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.04319714447631338</v>
+        <v>0.04393469175710792</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.08096981887568883</v>
+        <v>0.08146178632513819</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>67</v>
@@ -6048,19 +6048,19 @@
         <v>44982</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>35159</v>
+        <v>34467</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>56429</v>
+        <v>56120</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.09209766092583049</v>
+        <v>0.09209766092583048</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.07198653125412102</v>
+        <v>0.07056937916570639</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1155365443522287</v>
+        <v>0.1149034567404942</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>111</v>
@@ -6069,19 +6069,19 @@
         <v>78112</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>64367</v>
+        <v>64538</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>93270</v>
+        <v>93159</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.07517784401211182</v>
+        <v>0.07517784401211181</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.06194902806925354</v>
+        <v>0.06211404973025435</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.08976620577991812</v>
+        <v>0.08965954222119558</v>
       </c>
     </row>
     <row r="5">
@@ -6098,19 +6098,19 @@
         <v>517488</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>506035</v>
+        <v>505764</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>526833</v>
+        <v>526427</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9398304171989481</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9190301811243111</v>
+        <v>0.9185382136748617</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9568028555236865</v>
+        <v>0.9560653082428922</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>619</v>
@@ -6119,19 +6119,19 @@
         <v>443429</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>431982</v>
+        <v>432291</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>453252</v>
+        <v>453944</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.9079023390741695</v>
+        <v>0.9079023390741693</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8844634556477714</v>
+        <v>0.8850965432595057</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9280134687458789</v>
+        <v>0.9294306208342936</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1129</v>
@@ -6140,19 +6140,19 @@
         <v>960917</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>945759</v>
+        <v>945870</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>974662</v>
+        <v>974491</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.9248221559878883</v>
+        <v>0.9248221559878881</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9102337942200818</v>
+        <v>0.9103404577788045</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9380509719307465</v>
+        <v>0.9378859502697456</v>
       </c>
     </row>
     <row r="6">
@@ -6244,19 +6244,19 @@
         <v>33639</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>24477</v>
+        <v>23926</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>44338</v>
+        <v>45567</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.06961600562938718</v>
+        <v>0.06961600562938716</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.05065485119911602</v>
+        <v>0.04951348845611708</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.09175774186918685</v>
+        <v>0.09429922542111074</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>82</v>
@@ -6265,19 +6265,19 @@
         <v>51854</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>41835</v>
+        <v>42267</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>63858</v>
+        <v>65008</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1225454611368202</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.09886802806644159</v>
+        <v>0.09988720241070088</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1509139048185557</v>
+        <v>0.1536305809697732</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>126</v>
@@ -6286,19 +6286,19 @@
         <v>85494</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>71220</v>
+        <v>71433</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>99023</v>
+        <v>102451</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.09432676559074911</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.07857839552300244</v>
+        <v>0.07881366932654965</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1092543662846278</v>
+        <v>0.1130368083413079</v>
       </c>
     </row>
     <row r="8">
@@ -6315,19 +6315,19 @@
         <v>449573</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>438874</v>
+        <v>437645</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>458735</v>
+        <v>459286</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.9303839943706127</v>
+        <v>0.9303839943706129</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9082422581308132</v>
+        <v>0.9057007745788884</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9493451488008841</v>
+        <v>0.9504865115438826</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>508</v>
@@ -6336,19 +6336,19 @@
         <v>371289</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>359285</v>
+        <v>358135</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>381308</v>
+        <v>380876</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.8774545388631798</v>
+        <v>0.8774545388631797</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8490860951814443</v>
+        <v>0.8463694190302267</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9011319719335584</v>
+        <v>0.900112797589299</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>945</v>
@@ -6357,19 +6357,19 @@
         <v>820861</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>807332</v>
+        <v>803904</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>835135</v>
+        <v>834922</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9056732344092508</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8907456337153722</v>
+        <v>0.8869631916586922</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9214216044769986</v>
+        <v>0.9211863306734503</v>
       </c>
     </row>
     <row r="9">
@@ -6461,19 +6461,19 @@
         <v>50209</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>39349</v>
+        <v>38380</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>66237</v>
+        <v>63949</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1064633825100366</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.08343434534153724</v>
+        <v>0.08138151179991017</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1404477169145886</v>
+        <v>0.1355972862338859</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>65</v>
@@ -6482,19 +6482,19 @@
         <v>37446</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>29778</v>
+        <v>29746</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>46210</v>
+        <v>46315</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1997161924200115</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1588163705398849</v>
+        <v>0.1586465090697971</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2464548745183694</v>
+        <v>0.2470167990693776</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>127</v>
@@ -6503,19 +6503,19 @@
         <v>87656</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>73011</v>
+        <v>73304</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>102508</v>
+        <v>104817</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.1329910868387998</v>
+        <v>0.1329910868387999</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.11077255994696</v>
+        <v>0.1112163850536263</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.155524399575828</v>
+        <v>0.1590276407555994</v>
       </c>
     </row>
     <row r="11">
@@ -6532,19 +6532,19 @@
         <v>421403</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>405375</v>
+        <v>407663</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>432263</v>
+        <v>433232</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.8935366174899634</v>
+        <v>0.8935366174899633</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8595522830854113</v>
+        <v>0.8644027137661139</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9165656546584627</v>
+        <v>0.9186184882000897</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>224</v>
@@ -6553,19 +6553,19 @@
         <v>150051</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>141287</v>
+        <v>141182</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>157719</v>
+        <v>157751</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8002838075799885</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7535451254816307</v>
+        <v>0.7529832009306224</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.841183629460115</v>
+        <v>0.841353490930203</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>650</v>
@@ -6574,19 +6574,19 @@
         <v>571453</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>556601</v>
+        <v>554292</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>586098</v>
+        <v>585805</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8670089131612001</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8444756004241721</v>
+        <v>0.8409723592444024</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8892274400530399</v>
+        <v>0.8887836149463739</v>
       </c>
     </row>
     <row r="12">
@@ -6678,19 +6678,19 @@
         <v>117379</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>99970</v>
+        <v>98973</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>137581</v>
+        <v>136126</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1037064239564422</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.08832476509494046</v>
+        <v>0.08744378031455032</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1215550036344973</v>
+        <v>0.1202689899014226</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>177</v>
@@ -6699,19 +6699,19 @@
         <v>102740</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>88781</v>
+        <v>86911</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>117980</v>
+        <v>116794</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1192969204492091</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1030891346580004</v>
+        <v>0.1009175941528603</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1369933406383607</v>
+        <v>0.1356154394145247</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>336</v>
@@ -6720,19 +6720,19 @@
         <v>220119</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>198610</v>
+        <v>196406</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>245653</v>
+        <v>247418</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.1104431768202295</v>
+        <v>0.1104431768202296</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.09965133603185609</v>
+        <v>0.09854518653636003</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.123254611265442</v>
+        <v>0.1241400945936454</v>
       </c>
     </row>
     <row r="14">
@@ -6749,19 +6749,19 @@
         <v>1014464</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>994262</v>
+        <v>995717</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1031873</v>
+        <v>1032870</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8962935760435576</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8784449963655027</v>
+        <v>0.8797310100985775</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9116752349050596</v>
+        <v>0.9125562196854496</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1053</v>
@@ -6770,19 +6770,19 @@
         <v>758471</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>743231</v>
+        <v>744417</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>772430</v>
+        <v>774300</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.880703079550791</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8630066593616387</v>
+        <v>0.8643845605854751</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8969108653419995</v>
+        <v>0.8990824058471386</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2012</v>
@@ -6791,19 +6791,19 @@
         <v>1772935</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1747401</v>
+        <v>1745636</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1794444</v>
+        <v>1796648</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.8895568231797705</v>
+        <v>0.8895568231797706</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.876745388734558</v>
+        <v>0.8758599054063548</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9003486639681438</v>
+        <v>0.90145481346364</v>
       </c>
     </row>
     <row r="15">
@@ -6895,19 +6895,19 @@
         <v>49579</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>39174</v>
+        <v>38247</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>63217</v>
+        <v>62107</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.08729304200864856</v>
+        <v>0.08729304200864853</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.06897354610602692</v>
+        <v>0.06733999097763711</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1113041985175073</v>
+        <v>0.1093509096856465</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>379</v>
@@ -6916,19 +6916,19 @@
         <v>207250</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>189707</v>
+        <v>186937</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>227160</v>
+        <v>229002</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2494439254454107</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2283283860748087</v>
+        <v>0.2249951901106122</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2734067587092123</v>
+        <v>0.2756243091099144</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>446</v>
@@ -6937,19 +6937,19 @@
         <v>256830</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>232340</v>
+        <v>235376</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>279839</v>
+        <v>282059</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1836054194774419</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1660976579962201</v>
+        <v>0.1682680627121086</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2000546775360199</v>
+        <v>0.2016417507704474</v>
       </c>
     </row>
     <row r="17">
@@ -6966,19 +6966,19 @@
         <v>518385</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>504747</v>
+        <v>505857</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>528790</v>
+        <v>529717</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9127069579913514</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8886958014824928</v>
+        <v>0.8906490903143536</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9310264538939731</v>
+        <v>0.9326600090223628</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>911</v>
@@ -6987,19 +6987,19 @@
         <v>623600</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>603690</v>
+        <v>601848</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>641143</v>
+        <v>643913</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.7505560745545893</v>
+        <v>0.7505560745545895</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7265932412907874</v>
+        <v>0.7243756908900855</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7716716139251911</v>
+        <v>0.7750048098893879</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1391</v>
@@ -7008,19 +7008,19 @@
         <v>1141984</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1118975</v>
+        <v>1116755</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1166474</v>
+        <v>1163438</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.816394580522558</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7999453224639801</v>
+        <v>0.7983582492295527</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8339023420037802</v>
+        <v>0.8317319372878915</v>
       </c>
     </row>
     <row r="18">
@@ -7112,19 +7112,19 @@
         <v>6004</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>2508</v>
+        <v>2575</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>12472</v>
+        <v>13497</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.02531033163122297</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.01057355521817843</v>
+        <v>0.01085515888398826</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.05257244155085059</v>
+        <v>0.05689528851677281</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>278</v>
@@ -7133,19 +7133,19 @@
         <v>154761</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>135343</v>
+        <v>137369</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>173346</v>
+        <v>174716</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1833049591134941</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1603055199434454</v>
+        <v>0.1627047802713746</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2053174441874559</v>
+        <v>0.2069405059410583</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>286</v>
@@ -7154,19 +7154,19 @@
         <v>160765</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>139593</v>
+        <v>141124</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>178830</v>
+        <v>181102</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1486490118895986</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1290728754346231</v>
+        <v>0.130488064687581</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1653520495111983</v>
+        <v>0.1674528987992144</v>
       </c>
     </row>
     <row r="20">
@@ -7183,19 +7183,19 @@
         <v>231224</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>224756</v>
+        <v>223731</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>234720</v>
+        <v>234653</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.9746896683687771</v>
+        <v>0.9746896683687769</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9474275584491498</v>
+        <v>0.9431047114832271</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9894264447818218</v>
+        <v>0.9891448411160118</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>881</v>
@@ -7204,19 +7204,19 @@
         <v>689520</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>670935</v>
+        <v>669565</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>708938</v>
+        <v>706912</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.8166950408865058</v>
+        <v>0.8166950408865059</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.7946825558125442</v>
+        <v>0.7930594940589424</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8396944800565546</v>
+        <v>0.8372952197286255</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>985</v>
@@ -7225,19 +7225,19 @@
         <v>920744</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>902679</v>
+        <v>900407</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>941916</v>
+        <v>940385</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.8513509881104016</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8346479504888017</v>
+        <v>0.8325471012007857</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8709271245653768</v>
+        <v>0.8695119353124191</v>
       </c>
     </row>
     <row r="21">
@@ -7329,19 +7329,19 @@
         <v>289942</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>262995</v>
+        <v>258912</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>322488</v>
+        <v>320655</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.08422486722062984</v>
+        <v>0.08422486722062983</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.07639703594263034</v>
+        <v>0.07521109265464178</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.09367899584722129</v>
+        <v>0.09314662309730905</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>1048</v>
@@ -7350,19 +7350,19 @@
         <v>599033</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>566447</v>
+        <v>563778</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>635620</v>
+        <v>634098</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1647781037641204</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1558144089283933</v>
+        <v>0.1550802890093319</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1748423006277961</v>
+        <v>0.1744235767414658</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1432</v>
@@ -7371,19 +7371,19 @@
         <v>888975</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>844484</v>
+        <v>844844</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>931987</v>
+        <v>941656</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1255992808290911</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1193132473186359</v>
+        <v>0.1193642263887924</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1316761811071883</v>
+        <v>0.133042277730235</v>
       </c>
     </row>
     <row r="23">
@@ -7400,19 +7400,19 @@
         <v>3152534</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3119988</v>
+        <v>3121821</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>3179481</v>
+        <v>3183564</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.9157751327793703</v>
+        <v>0.9157751327793702</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9063210041527789</v>
+        <v>0.9068533769026909</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9236029640573696</v>
+        <v>0.9247889073453581</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>4196</v>
@@ -7421,19 +7421,19 @@
         <v>3036360</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>2999773</v>
+        <v>3001295</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>3068946</v>
+        <v>3071615</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.8352218962358796</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.8251576993722042</v>
+        <v>0.8255764232585342</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.8441855910716068</v>
+        <v>0.8449197109906681</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>7112</v>
@@ -7442,19 +7442,19 @@
         <v>6188894</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>6145882</v>
+        <v>6136213</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>6233385</v>
+        <v>6233025</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.8744007191709089</v>
+        <v>0.874400719170909</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.8683238188928116</v>
+        <v>0.8669577222697649</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.880686752681364</v>
+        <v>0.8806357736112076</v>
       </c>
     </row>
     <row r="24">
